--- a/Resumen_Subenciones.xlsx
+++ b/Resumen_Subenciones.xlsx
@@ -38,13 +38,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,8 +74,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/Resumen_Subenciones.xlsx
+++ b/Resumen_Subenciones.xlsx
@@ -29,23 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -66,16 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,456 +434,456 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="6">
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Asociación</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>Suma</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>AMPA AGORA</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" t="n">
         <v>560</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" t="n">
         <v>2421.67</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" t="n">
         <v>269.07</v>
       </c>
     </row>
     <row r="8">
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>AMPA ALDEBARAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" t="n">
         <v>980.05</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" t="n">
         <v>3107.05</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" t="n">
         <v>388.38</v>
       </c>
     </row>
     <row r="9">
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>AMPA ANTONIO MACHADO</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" t="n">
         <v>921</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" t="n">
         <v>2344.99</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" t="n">
         <v>234.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>AMPA BACHILLER ALONSO LOPEZ</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" t="n">
         <v>928</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" t="n">
         <v>3200</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" t="n">
         <v>457.14</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>AMPA CASTILLA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" t="n">
         <v>840</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" t="n">
         <v>260.44</v>
       </c>
     </row>
     <row r="12">
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>AMPA DAOIZ Y VELARDE</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" t="n">
         <v>689</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" t="n">
         <v>3152.74</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" t="n">
         <v>394.09</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>AMPA EL CUQUILLO</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" t="n">
         <v>610</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" t="n">
         <v>1507.83</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" t="n">
         <v>376.96</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>AMPA EMILIO CASADO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" t="n">
         <v>3015.67</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" t="n">
         <v>376.96</v>
       </c>
     </row>
     <row r="15">
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>AMPA FAPA</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" t="n">
         <v>1515</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" t="n">
         <v>3198.43</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" t="n">
         <v>1066.14</v>
       </c>
     </row>
     <row r="16">
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>AMPA FEDERICO GARCIA LORCA</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" t="n">
         <v>1400</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" t="n">
         <v>1919.06</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" t="n">
         <v>639.6900000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>AMPA GABRIEL Y GALAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" t="n">
         <v>1151.51</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" t="n">
         <v>2741.51</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" t="n">
         <v>342.69</v>
       </c>
     </row>
     <row r="18">
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>AMPA GINER DE LOS RIOS</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" t="n">
         <v>673</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" t="n">
         <v>2058</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>AMPA JUAN XXIII</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" t="n">
         <v>800</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" t="n">
         <v>1781.98</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" t="n">
         <v>593.99</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>AMPA LA CHOPERA</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" t="n">
         <v>990</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" t="n">
         <v>1430</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" t="n">
         <v>476.67</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>AMPA LUIS BUÑUEL</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" t="n">
         <v>625</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" t="n">
         <v>2081</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" t="n">
         <v>208.1</v>
       </c>
     </row>
     <row r="22">
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>AMPA MIGUEL HERNANDEZ</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" t="n">
         <v>530</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" t="n">
         <v>2923.35</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" t="n">
         <v>243.61</v>
       </c>
     </row>
     <row r="23">
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>AMPA MIRAFLORES</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" t="n">
         <v>1500</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" t="n">
         <v>2787.21</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" t="n">
         <v>696.8</v>
       </c>
     </row>
     <row r="24">
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>AMPA PADRE  MANYANET</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" t="n">
         <v>803.8200000000001</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" t="n">
         <v>2695.82</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" t="n">
         <v>673.96</v>
       </c>
     </row>
     <row r="25">
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>AMPA PARQUE CATALUÑA</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" t="n">
         <v>995</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" t="n">
         <v>325.56</v>
       </c>
     </row>
     <row r="26">
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>AMPA PROFESOR TIERNO GALVÁN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" t="n">
         <v>306</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" t="n">
         <v>1286</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" t="n">
         <v>214.33</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>AMPA RIVENDEL</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" t="n">
         <v>794</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" t="n">
         <v>2200</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" t="n">
         <v>275</v>
       </c>
     </row>
     <row r="28">
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>AMPA SAN ANTONIO</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" t="n">
         <v>895</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" t="n">
         <v>2101.83</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" t="n">
         <v>700.61</v>
       </c>
     </row>
     <row r="29">
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>AMPA SEIS DE DICIEMBRE</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" t="n">
         <v>518</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" t="n">
         <v>1950</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="30">
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>AMPA SEVERO OCHOA</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" t="n">
         <v>981.97</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" t="n">
         <v>3563.97</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" t="n">
         <v>356.4</v>
       </c>
     </row>
     <row r="31">
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>AMPA VALDELAPARRA</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" t="n">
         <v>685</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" t="n">
         <v>2465</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" t="n">
         <v>352.14</v>
       </c>
     </row>
     <row r="32">
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>AMPA VALDEPALITOS</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" t="n">
         <v>690</v>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" t="n">
         <v>3929.5</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" t="n">
         <v>231.15</v>
       </c>
     </row>
     <row r="33">
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>AMPA VIRGEN DE LA PAZ</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" t="n">
         <v>927.45</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" t="n">
         <v>1416.45</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" t="n">
         <v>283.29</v>
       </c>
     </row>

--- a/Resumen_Subenciones.xlsx
+++ b/Resumen_Subenciones.xlsx
@@ -29,12 +29,23 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +66,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,456 +450,456 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="6">
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Asociación</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Suma</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>AMPA AGORA</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>2421.67</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4" t="n">
         <v>269.07</v>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>AMPA ALDEBARAN</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4" t="n">
         <v>980.05</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="3" t="n">
         <v>3107.05</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4" t="n">
         <v>388.38</v>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>AMPA ANTONIO MACHADO</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4" t="n">
         <v>921</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="3" t="n">
         <v>2344.99</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4" t="n">
         <v>234.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>AMPA BACHILLER ALONSO LOPEZ</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4" t="n">
         <v>928</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="3" t="n">
         <v>3200</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4" t="n">
         <v>457.14</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>AMPA CASTILLA</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4" t="n">
         <v>840</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="3" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4" t="n">
         <v>260.44</v>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>AMPA DAOIZ Y VELARDE</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4" t="n">
         <v>689</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="3" t="n">
         <v>3152.74</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4" t="n">
         <v>394.09</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>AMPA EL CUQUILLO</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>610</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="3" t="n">
         <v>1507.83</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4" t="n">
         <v>376.96</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>AMPA EMILIO CASADO</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="3" t="n">
         <v>3015.67</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4" t="n">
         <v>376.96</v>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>AMPA FAPA</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4" t="n">
         <v>1515</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="3" t="n">
         <v>3198.43</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4" t="n">
         <v>1066.14</v>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>AMPA FEDERICO GARCIA LORCA</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4" t="n">
         <v>1400</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="3" t="n">
         <v>1919.06</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4" t="n">
         <v>639.6900000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>AMPA GABRIEL Y GALAN</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4" t="n">
         <v>1151.51</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="3" t="n">
         <v>2741.51</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4" t="n">
         <v>342.69</v>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>AMPA GINER DE LOS RIOS</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4" t="n">
         <v>673</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="3" t="n">
         <v>2058</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>AMPA JUAN XXIII</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="3" t="n">
         <v>1781.98</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4" t="n">
         <v>593.99</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>AMPA LA CHOPERA</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4" t="n">
         <v>990</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="3" t="n">
         <v>1430</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4" t="n">
         <v>476.67</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>AMPA LUIS BUÑUEL</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4" t="n">
         <v>625</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="3" t="n">
         <v>2081</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4" t="n">
         <v>208.1</v>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>AMPA MIGUEL HERNANDEZ</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4" t="n">
         <v>530</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="3" t="n">
         <v>2923.35</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4" t="n">
         <v>243.61</v>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>AMPA MIRAFLORES</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="3" t="n">
         <v>2787.21</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4" t="n">
         <v>696.8</v>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>AMPA PADRE  MANYANET</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4" t="n">
         <v>803.8200000000001</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="3" t="n">
         <v>2695.82</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4" t="n">
         <v>673.96</v>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>AMPA PARQUE CATALUÑA</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4" t="n">
         <v>995</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="3" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4" t="n">
         <v>325.56</v>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>AMPA PROFESOR TIERNO GALVÁN</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4" t="n">
         <v>306</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="3" t="n">
         <v>1286</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4" t="n">
         <v>214.33</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>AMPA RIVENDEL</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4" t="n">
         <v>794</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="3" t="n">
         <v>2200</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="4" t="n">
         <v>275</v>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>AMPA SAN ANTONIO</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4" t="n">
         <v>895</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="3" t="n">
         <v>2101.83</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="4" t="n">
         <v>700.61</v>
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>AMPA SEIS DE DICIEMBRE</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4" t="n">
         <v>518</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="3" t="n">
         <v>1950</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="4" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>AMPA SEVERO OCHOA</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4" t="n">
         <v>981.97</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="3" t="n">
         <v>3563.97</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="4" t="n">
         <v>356.4</v>
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>AMPA VALDELAPARRA</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4" t="n">
         <v>685</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="3" t="n">
         <v>2465</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="4" t="n">
         <v>352.14</v>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>AMPA VALDEPALITOS</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="4" t="n">
         <v>690</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="3" t="n">
         <v>3929.5</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="4" t="n">
         <v>231.15</v>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>AMPA VIRGEN DE LA PAZ</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="4" t="n">
         <v>927.45</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="3" t="n">
         <v>1416.45</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="4" t="n">
         <v>283.29</v>
       </c>
     </row>

--- a/Resumen_Subenciones.xlsx
+++ b/Resumen_Subenciones.xlsx
@@ -29,18 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -75,7 +69,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,13 +470,13 @@
           <t>AMPA AGORA</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>560</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>2421.67</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <v>269.07</v>
       </c>
     </row>
@@ -493,13 +486,13 @@
           <t>AMPA ALDEBARAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <v>980.05</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>3107.05</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <v>388.38</v>
       </c>
     </row>
@@ -509,13 +502,13 @@
           <t>AMPA ANTONIO MACHADO</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <v>921</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>2344.99</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <v>234.5</v>
       </c>
     </row>
@@ -525,13 +518,13 @@
           <t>AMPA BACHILLER ALONSO LOPEZ</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="3" t="n">
         <v>928</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>3200</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="3" t="n">
         <v>457.14</v>
       </c>
     </row>
@@ -541,13 +534,13 @@
           <t>AMPA CASTILLA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="3" t="n">
         <v>840</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="3" t="n">
         <v>260.44</v>
       </c>
     </row>
@@ -557,13 +550,13 @@
           <t>AMPA DAOIZ Y VELARDE</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="3" t="n">
         <v>689</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>3152.74</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="3" t="n">
         <v>394.09</v>
       </c>
     </row>
@@ -573,13 +566,13 @@
           <t>AMPA EL CUQUILLO</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <v>610</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>1507.83</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="3" t="n">
         <v>376.96</v>
       </c>
     </row>
@@ -589,13 +582,13 @@
           <t>AMPA EMILIO CASADO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>3015.67</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <v>376.96</v>
       </c>
     </row>
@@ -605,13 +598,13 @@
           <t>AMPA FAPA</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="3" t="n">
         <v>1515</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>3198.43</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="3" t="n">
         <v>1066.14</v>
       </c>
     </row>
@@ -621,13 +614,13 @@
           <t>AMPA FEDERICO GARCIA LORCA</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>1919.06</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="3" t="n">
         <v>639.6900000000001</v>
       </c>
     </row>
@@ -637,13 +630,13 @@
           <t>AMPA GABRIEL Y GALAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="3" t="n">
         <v>1151.51</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>2741.51</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="3" t="n">
         <v>342.69</v>
       </c>
     </row>
@@ -653,13 +646,13 @@
           <t>AMPA GINER DE LOS RIOS</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="3" t="n">
         <v>673</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>2058</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="3" t="n">
         <v>294</v>
       </c>
     </row>
@@ -669,13 +662,13 @@
           <t>AMPA JUAN XXIII</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <v>800</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>1781.98</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="3" t="n">
         <v>593.99</v>
       </c>
     </row>
@@ -685,13 +678,13 @@
           <t>AMPA LA CHOPERA</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <v>990</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>1430</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <v>476.67</v>
       </c>
     </row>
@@ -701,13 +694,13 @@
           <t>AMPA LUIS BUÑUEL</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <v>625</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>2081</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="3" t="n">
         <v>208.1</v>
       </c>
     </row>
@@ -717,13 +710,13 @@
           <t>AMPA MIGUEL HERNANDEZ</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="3" t="n">
         <v>530</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>2923.35</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="3" t="n">
         <v>243.61</v>
       </c>
     </row>
@@ -733,13 +726,13 @@
           <t>AMPA MIRAFLORES</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>2787.21</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="3" t="n">
         <v>696.8</v>
       </c>
     </row>
@@ -749,13 +742,13 @@
           <t>AMPA PADRE  MANYANET</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3" t="n">
         <v>803.8200000000001</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>2695.82</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="3" t="n">
         <v>673.96</v>
       </c>
     </row>
@@ -765,13 +758,13 @@
           <t>AMPA PARQUE CATALUÑA</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <v>995</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>2604.44</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <v>325.56</v>
       </c>
     </row>
@@ -781,13 +774,13 @@
           <t>AMPA PROFESOR TIERNO GALVÁN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="3" t="n">
         <v>306</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>1286</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <v>214.33</v>
       </c>
     </row>
@@ -797,13 +790,13 @@
           <t>AMPA RIVENDEL</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="3" t="n">
         <v>794</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>2200</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <v>275</v>
       </c>
     </row>
@@ -813,13 +806,13 @@
           <t>AMPA SAN ANTONIO</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="3" t="n">
         <v>895</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>2101.83</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="3" t="n">
         <v>700.61</v>
       </c>
     </row>
@@ -829,13 +822,13 @@
           <t>AMPA SEIS DE DICIEMBRE</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="3" t="n">
         <v>518</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>1950</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="3" t="n">
         <v>325</v>
       </c>
     </row>
@@ -845,13 +838,13 @@
           <t>AMPA SEVERO OCHOA</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="3" t="n">
         <v>981.97</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>3563.97</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="3" t="n">
         <v>356.4</v>
       </c>
     </row>
@@ -861,13 +854,13 @@
           <t>AMPA VALDELAPARRA</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="3" t="n">
         <v>685</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>2465</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="3" t="n">
         <v>352.14</v>
       </c>
     </row>
@@ -877,13 +870,13 @@
           <t>AMPA VALDEPALITOS</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="3" t="n">
         <v>690</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>3929.5</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="3" t="n">
         <v>231.15</v>
       </c>
     </row>
@@ -893,13 +886,13 @@
           <t>AMPA VIRGEN DE LA PAZ</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="3" t="n">
         <v>927.45</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>1416.45</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="3" t="n">
         <v>283.29</v>
       </c>
     </row>
